--- a/downloads/Points_and_Penaltys_and_Tasks.xlsx
+++ b/downloads/Points_and_Penaltys_and_Tasks.xlsx
@@ -5,11 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Points_Penaltys" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Tasks" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Instance" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Environment" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="107">
   <si>
     <t xml:space="preserve">RoboCup At Work Pointsystem</t>
   </si>
@@ -312,6 +314,38 @@
   </si>
   <si>
     <t xml:space="preserve">13min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Appearance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decoys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service
+Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environment Decisions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objects
+Decoys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTT Rotation direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPT Cavaties Decoy Type</t>
   </si>
 </sst>
 </file>
@@ -371,14 +405,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -388,13 +414,6 @@
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -442,8 +461,23 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -452,80 +486,47 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF8CBAD"/>
-        <bgColor rgb="FFFDC578"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFC2E0AE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFF8CBAD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFDC578"/>
-        <bgColor rgb="FFF8CBAD"/>
+        <bgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC2E0AE"/>
-        <bgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFC2E0AE"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEEEEEE"/>
-        <bgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="27">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -711,7 +712,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -735,61 +736,52 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="132">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="5" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -801,11 +793,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -813,75 +805,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="6" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="8" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="6" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="8" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="10" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="12" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="10" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="12" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="11" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -889,43 +817,107 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="14" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="16" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="14" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="16" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="15" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -933,75 +925,75 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="17" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="18" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="17" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="18" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="7" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1009,115 +1001,115 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1125,74 +1117,167 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in 40% - Accent2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Calculation" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Good" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Neutral" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1211,15 +1296,15 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFCCCCCC"/>
-      <rgbColor rgb="FF7F7F7F"/>
+      <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFF2F2F2"/>
       <rgbColor rgb="FFEEEEEE"/>
+      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFC2E0AE"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1230,18 +1315,18 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFC6EFCE"/>
+      <rgbColor rgb="FFC2E0AE"/>
       <rgbColor rgb="FFFFEB9C"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFF8CBAD"/>
+      <rgbColor rgb="FFFDC578"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFDC578"/>
+      <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFA7D00"/>
+      <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -1264,8 +1349,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U15" activeCellId="0" sqref="U15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O3" activeCellId="0" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1275,17 +1360,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="17" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="30.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="22" style="0" width="8.71"/>
@@ -3505,9 +3590,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -3703,7 +3788,7 @@
       <c r="A7" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="89" t="s">
         <v>67</v>
       </c>
       <c r="C7" s="91" t="s">
@@ -3733,31 +3818,31 @@
     </row>
     <row r="8" customFormat="false" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="88"/>
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="102" t="s">
+      <c r="C8" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="102" t="s">
+      <c r="D8" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="102" t="s">
+      <c r="E8" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="103" t="s">
+      <c r="F8" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="102" t="s">
+      <c r="G8" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="102" t="s">
+      <c r="H8" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="102" t="s">
+      <c r="I8" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="104" t="s">
+      <c r="J8" s="103" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3792,10 +3877,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="105" t="s">
+      <c r="A10" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="89" t="s">
         <v>73</v>
       </c>
       <c r="C10" s="91" t="s">
@@ -3822,7 +3907,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="105"/>
+      <c r="A11" s="104"/>
       <c r="B11" s="97" t="s">
         <v>74</v>
       </c>
@@ -3862,10 +3947,10 @@
       <c r="J12" s="86"/>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="89" t="s">
         <v>76</v>
       </c>
       <c r="C13" s="91" t="s">
@@ -3894,7 +3979,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="106"/>
+      <c r="A14" s="105"/>
       <c r="B14" s="93" t="s">
         <v>77</v>
       </c>
@@ -3924,7 +4009,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="106"/>
+      <c r="A15" s="105"/>
       <c r="B15" s="93" t="s">
         <v>78</v>
       </c>
@@ -3944,7 +4029,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="106"/>
+      <c r="A16" s="105"/>
       <c r="B16" s="97" t="s">
         <v>79</v>
       </c>
@@ -3974,7 +4059,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="107" t="s">
+      <c r="A17" s="106" t="s">
         <v>81</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -4006,7 +4091,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="107"/>
+      <c r="A18" s="106"/>
       <c r="B18" s="12" t="s">
         <v>83</v>
       </c>
@@ -4036,7 +4121,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="107"/>
+      <c r="A19" s="106"/>
       <c r="B19" s="12" t="s">
         <v>84</v>
       </c>
@@ -4066,7 +4151,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="107"/>
+      <c r="A20" s="106"/>
       <c r="B20" s="12" t="s">
         <v>85</v>
       </c>
@@ -4096,7 +4181,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="107"/>
+      <c r="A21" s="106"/>
       <c r="B21" s="12" t="s">
         <v>86</v>
       </c>
@@ -4126,7 +4211,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="107"/>
+      <c r="A22" s="106"/>
       <c r="B22" s="12" t="s">
         <v>87</v>
       </c>
@@ -4156,7 +4241,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="107"/>
+      <c r="A23" s="106"/>
       <c r="B23" s="12" t="s">
         <v>88</v>
       </c>
@@ -4176,7 +4261,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="107"/>
+      <c r="A24" s="106"/>
       <c r="B24" s="12" t="s">
         <v>89</v>
       </c>
@@ -4196,7 +4281,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="107"/>
+      <c r="A25" s="106"/>
       <c r="B25" s="12" t="s">
         <v>90</v>
       </c>
@@ -4254,6 +4339,7 @@
         <v>96</v>
       </c>
     </row>
+    <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:A6"/>
@@ -4270,4 +4356,939 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="85" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="9.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="85" width="31.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="85" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="5" style="85" width="10.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="85" width="11.42"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0"/>
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0"/>
+      <c r="B2" s="0"/>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
+      <c r="J2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0"/>
+      <c r="B3" s="0"/>
+      <c r="C3" s="107" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="107" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0"/>
+      <c r="B4" s="0"/>
+      <c r="C4" s="0"/>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="0"/>
+      <c r="E5" s="109" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="109" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="109" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="109" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="109" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0"/>
+      <c r="B6" s="110" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="111" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="112" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="113" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" s="113" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" s="113" t="n">
+        <v>6</v>
+      </c>
+      <c r="H6" s="113" t="n">
+        <v>6</v>
+      </c>
+      <c r="I6" s="113" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" s="113" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" s="113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="112" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" s="113" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" s="113" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" s="113"/>
+      <c r="J7" s="113" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" s="113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+    </row>
+    <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0"/>
+      <c r="B9" s="114" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="111" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="113" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="113" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" s="113" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" s="113" t="n">
+        <v>5</v>
+      </c>
+      <c r="I9" s="113" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="113" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="113" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" s="113" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+    </row>
+    <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0"/>
+      <c r="B12" s="115" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="111" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="113" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" s="113" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="111" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="113" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" s="85" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+    </row>
+    <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0"/>
+      <c r="B15" s="114" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="111" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="111" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" s="113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="111" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="113" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+    </row>
+    <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0"/>
+      <c r="B19" s="110" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="111" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="113" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" s="113"/>
+      <c r="K19" s="113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="111" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="113"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="111" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="111" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" s="113"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="111" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="113"/>
+    </row>
+    <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="111" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="J24" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24" s="113" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" s="85" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="12"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+    </row>
+    <row r="26" s="85" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="111" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="113" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="113" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="113" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="113" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="J26" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="K26" s="113" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B19:B24"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="85" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="9.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="85" width="31.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="4" style="85" width="10.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="10" style="85" width="11.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0"/>
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0"/>
+      <c r="B2" s="0"/>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0"/>
+      <c r="B3" s="0"/>
+      <c r="C3" s="107" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="107" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0"/>
+      <c r="B4" s="0"/>
+      <c r="C4" s="0"/>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="117" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="117" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="117" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="117" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="117" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="117" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0"/>
+      <c r="B6" s="114" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="111" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="113" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="113" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="111" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="113" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="113" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="113" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="113" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="111" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="113" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="113" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="113" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="113" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="113" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="113" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="113" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+    </row>
+    <row r="10" s="85" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0"/>
+      <c r="B10" s="114" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="120" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="120" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="0"/>
+    </row>
+    <row r="11" s="85" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0"/>
+      <c r="B12" s="114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="111" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="121"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="113" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+    </row>
+    <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0"/>
+      <c r="B14" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="111" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="124"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="113" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="110"/>
+      <c r="C15" s="111" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="127"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="113" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="110"/>
+      <c r="C16" s="111" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="129"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="113" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="113" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B14:B16"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/downloads/Points_and_Penaltys_and_Tasks.xlsx
+++ b/downloads/Points_and_Penaltys_and_Tasks.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="119">
   <si>
     <t xml:space="preserve">RoboCup At Work Pointsystem</t>
   </si>
@@ -239,37 +239,28 @@
     <t xml:space="preserve">Object Grasping</t>
   </si>
   <si>
-    <t xml:space="preserve">Objects from Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objects from RRT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Object from Arbitrary surface </t>
-  </si>
-  <si>
-    <t xml:space="preserve">?</t>
+    <t xml:space="preserve">from Arbitrary surface </t>
   </si>
   <si>
     <t xml:space="preserve">Object Placement</t>
   </si>
   <si>
-    <t xml:space="preserve">Objetcs on PPT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objects on Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objetcts in Red container</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objects in Blue container</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objects on RRT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objects on Arbitrary surface</t>
+    <t xml:space="preserve">on PPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in Red container</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in Blue container</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on RRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on Arbitrary surface</t>
   </si>
   <si>
     <t xml:space="preserve">Duration</t>
@@ -327,31 +318,67 @@
     <t xml:space="preserve">0cm, 5cm, 10cm, 15cm</t>
   </si>
   <si>
-    <t xml:space="preserve">RTT Rotation direction</t>
+    <t xml:space="preserve">Rotation direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cavaties Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cavaties Rotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cavaties Decoy Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decoy numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REF/TEAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objects from Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objects from RRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RRT Rotation direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object from Arbitrary surface </t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objetcs on PPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objects on Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objetcts in Red container</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objects in Blue container</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objects on RRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objects on Arbitrary surface</t>
   </si>
   <si>
     <t xml:space="preserve">PPT Cavaties Position</t>
   </si>
   <si>
     <t xml:space="preserve">PPT Cavaties Rotation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPT Cavaties Decoy Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decoy numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REF/TEAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service Area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RRT Rotation direction</t>
   </si>
   <si>
     <t xml:space="preserve">PPT Cavaties Orientation</t>
@@ -365,13 +392,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -390,19 +416,94 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
       <i val="true"/>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -410,14 +511,12 @@
       <color rgb="FFBA131A"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -425,7 +524,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -433,35 +531,24 @@
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -469,13 +556,11 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -483,10 +568,9 @@
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -495,20 +579,62 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
         <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FFBA131A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFDC578"/>
-        <bgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFCCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -520,7 +646,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
@@ -536,12 +662,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -727,7 +868,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -751,7 +892,58 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -760,59 +952,59 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -820,11 +1012,75 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="13" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="14" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="13" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="14" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -832,107 +1088,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="13" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="14" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -940,75 +1132,75 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="13" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="14" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="37" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="14" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="13" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="13" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1016,382 +1208,399 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="11" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="11" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="15" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="15" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="15" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="24">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="37" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF0000EE"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FFBA131A"/>
-      <rgbColor rgb="FF006100"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFEEEEEE"/>
-      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1401,11 +1610,11 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFC2E0AE"/>
+      <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFEB9C"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFDC578"/>
       <rgbColor rgb="FF3366FF"/>
@@ -1418,7 +1627,7 @@
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF006100"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF9C5700"/>
       <rgbColor rgb="FF993366"/>
@@ -1436,8 +1645,8 @@
   </sheetPr>
   <dimension ref="A1:AMI56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1447,17 +1656,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="17" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="30.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="22" style="0" width="8.71"/>
@@ -3707,15 +3916,15 @@
   </sheetPr>
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="86" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="86" width="31.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="86" width="36.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="86" width="18.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="5" style="86" width="10.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="86" width="11.42"/>
@@ -4145,7 +4354,7 @@
         <v>70</v>
       </c>
       <c r="C15" s="94" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="D15" s="96" t="s">
         <v>61</v>
@@ -4175,7 +4384,7 @@
       <c r="A16" s="87"/>
       <c r="B16" s="101"/>
       <c r="C16" s="94" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D16" s="96" t="s">
         <v>61</v>
@@ -4205,14 +4414,12 @@
       <c r="A17" s="87"/>
       <c r="B17" s="101"/>
       <c r="C17" s="102" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D17" s="103" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="103" t="n">
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E17" s="103"/>
       <c r="F17" s="103" t="n">
         <v>1</v>
       </c>
@@ -4220,7 +4427,7 @@
         <v>2</v>
       </c>
       <c r="H17" s="103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" s="103"/>
       <c r="J17" s="103"/>
@@ -4262,10 +4469,10 @@
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="87"/>
       <c r="B19" s="105" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C19" s="94" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D19" s="96" t="s">
         <v>61</v>
@@ -4295,7 +4502,7 @@
       <c r="A20" s="87"/>
       <c r="B20" s="105"/>
       <c r="C20" s="94" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D20" s="96" t="s">
         <v>61</v>
@@ -4325,7 +4532,7 @@
       <c r="A21" s="87"/>
       <c r="B21" s="105"/>
       <c r="C21" s="94" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D21" s="96" t="s">
         <v>61</v>
@@ -4355,7 +4562,7 @@
       <c r="A22" s="87"/>
       <c r="B22" s="105"/>
       <c r="C22" s="94" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D22" s="96" t="s">
         <v>61</v>
@@ -4385,7 +4592,7 @@
       <c r="A23" s="87"/>
       <c r="B23" s="105"/>
       <c r="C23" s="94" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D23" s="96" t="s">
         <v>61</v>
@@ -4413,14 +4620,12 @@
       <c r="A24" s="87"/>
       <c r="B24" s="105"/>
       <c r="C24" s="102" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D24" s="103" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="103" t="n">
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E24" s="103"/>
       <c r="F24" s="103" t="n">
         <v>1</v>
       </c>
@@ -4428,7 +4633,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" s="103"/>
       <c r="J24" s="103"/>
@@ -4471,31 +4676,31 @@
       <c r="A26" s="87"/>
       <c r="B26" s="87"/>
       <c r="C26" s="94" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D26" s="96" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="96" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="96" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="96" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" s="96" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="F26" s="96" t="s">
+      <c r="J26" s="96" t="s">
+        <v>83</v>
+      </c>
+      <c r="K26" s="96" t="s">
         <v>84</v>
-      </c>
-      <c r="G26" s="96" t="s">
-        <v>85</v>
-      </c>
-      <c r="H26" s="96" t="s">
-        <v>85</v>
-      </c>
-      <c r="I26" s="96" t="s">
-        <v>86</v>
-      </c>
-      <c r="J26" s="96" t="s">
-        <v>86</v>
-      </c>
-      <c r="K26" s="96" t="s">
-        <v>87</v>
       </c>
       <c r="L26" s="87"/>
       <c r="M26" s="87"/>
@@ -4665,8 +4870,8 @@
   </sheetPr>
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M21" activeCellId="0" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4682,7 +4887,7 @@
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="87"/>
       <c r="B1" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C1" s="87"/>
       <c r="D1" s="87"/>
@@ -4725,10 +4930,10 @@
       <c r="A3" s="87"/>
       <c r="B3" s="88"/>
       <c r="C3" s="89" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D3" s="89" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E3" s="89"/>
       <c r="F3" s="89"/>
@@ -4802,31 +5007,31 @@
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="87"/>
       <c r="B6" s="101" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="94" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="96" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="96" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="96" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="96" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="94" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="96" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="96" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="96" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="96" t="s">
-        <v>93</v>
-      </c>
-      <c r="H6" s="96" t="s">
-        <v>94</v>
-      </c>
       <c r="I6" s="96" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J6" s="96" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K6" s="87"/>
       <c r="L6" s="87"/>
@@ -4841,28 +5046,28 @@
       <c r="A7" s="87"/>
       <c r="B7" s="101"/>
       <c r="C7" s="94" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D7" s="96" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E7" s="96" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F7" s="96" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G7" s="96" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H7" s="96" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I7" s="96" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J7" s="96" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K7" s="87"/>
       <c r="L7" s="87"/>
@@ -4877,28 +5082,28 @@
       <c r="A8" s="87"/>
       <c r="B8" s="101"/>
       <c r="C8" s="94" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D8" s="96" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E8" s="96" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F8" s="96" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G8" s="96" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H8" s="96" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I8" s="96" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J8" s="96" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K8" s="87"/>
       <c r="L8" s="87"/>
@@ -4935,28 +5140,28 @@
         <v>64</v>
       </c>
       <c r="C10" s="107" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D10" s="108" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E10" s="108" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F10" s="109" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G10" s="108" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H10" s="108" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I10" s="108" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J10" s="109" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K10" s="87"/>
       <c r="L10" s="87"/>
@@ -4993,7 +5198,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="94" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D12" s="113"/>
       <c r="E12" s="114"/>
@@ -5001,10 +5206,10 @@
       <c r="G12" s="114"/>
       <c r="H12" s="115"/>
       <c r="I12" s="96" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J12" s="96" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K12" s="87"/>
       <c r="L12" s="87"/>
@@ -5041,7 +5246,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="94" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D14" s="116"/>
       <c r="E14" s="117"/>
@@ -5049,10 +5254,10 @@
       <c r="G14" s="117"/>
       <c r="H14" s="118"/>
       <c r="I14" s="96" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J14" s="96" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K14" s="87"/>
       <c r="L14" s="87"/>
@@ -5067,7 +5272,7 @@
       <c r="A15" s="87"/>
       <c r="B15" s="105"/>
       <c r="C15" s="94" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D15" s="119"/>
       <c r="E15" s="120"/>
@@ -5075,10 +5280,10 @@
       <c r="G15" s="120"/>
       <c r="H15" s="121"/>
       <c r="I15" s="96" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J15" s="96" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K15" s="87"/>
       <c r="L15" s="87"/>
@@ -5093,7 +5298,7 @@
       <c r="A16" s="87"/>
       <c r="B16" s="105"/>
       <c r="C16" s="94" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D16" s="122"/>
       <c r="E16" s="123"/>
@@ -5398,8 +5603,8 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5414,7 +5619,7 @@
       <c r="A1" s="125"/>
       <c r="B1" s="11"/>
       <c r="C1" s="126" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D1" s="126" t="s">
         <v>56</v>
@@ -5473,7 +5678,7 @@
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="127"/>
       <c r="B3" s="132" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C3" s="133" t="s">
         <v>63</v>
@@ -5503,96 +5708,96 @@
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="127"/>
       <c r="B4" s="132" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C4" s="120" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D4" s="120" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E4" s="120" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F4" s="120" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G4" s="120" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H4" s="120" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I4" s="120" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J4" s="134" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="127"/>
       <c r="B5" s="132" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C5" s="120" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D5" s="120" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E5" s="120" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F5" s="120" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G5" s="120" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H5" s="120" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I5" s="120" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J5" s="134" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="127"/>
       <c r="B6" s="135" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C6" s="120" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D6" s="136" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E6" s="136" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F6" s="136" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G6" s="136" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H6" s="136" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I6" s="136" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J6" s="137" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="127" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B7" s="128" t="s">
         <v>65</v>
@@ -5625,31 +5830,31 @@
     <row r="8" customFormat="false" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="127"/>
       <c r="B8" s="138" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C8" s="139" t="s">
         <v>61</v>
       </c>
       <c r="D8" s="139" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E8" s="139" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F8" s="140" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G8" s="139" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H8" s="139" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I8" s="139" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J8" s="141" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5757,7 +5962,7 @@
         <v>70</v>
       </c>
       <c r="B13" s="128" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="C13" s="130" t="s">
         <v>61</v>
@@ -5787,7 +5992,7 @@
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="143"/>
       <c r="B14" s="132" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="C14" s="120" t="s">
         <v>61</v>
@@ -5817,10 +6022,10 @@
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="143"/>
       <c r="B15" s="132" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" s="120" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D15" s="120"/>
       <c r="E15" s="120"/>
@@ -5828,19 +6033,19 @@
       <c r="G15" s="120"/>
       <c r="H15" s="120"/>
       <c r="I15" s="120" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J15" s="120" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="143"/>
       <c r="B16" s="144" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="C16" s="145" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="D16" s="145" t="n">
         <v>0</v>
@@ -5862,10 +6067,10 @@
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="147" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="C17" s="125" t="s">
         <v>61</v>
@@ -5895,7 +6100,7 @@
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="147"/>
       <c r="B18" s="12" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="C18" s="125" t="s">
         <v>61</v>
@@ -5925,7 +6130,7 @@
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="147"/>
       <c r="B19" s="12" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="C19" s="125" t="s">
         <v>61</v>
@@ -5955,7 +6160,7 @@
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="147"/>
       <c r="B20" s="12" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C20" s="125" t="s">
         <v>61</v>
@@ -5985,7 +6190,7 @@
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="147"/>
       <c r="B21" s="12" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="C21" s="125" t="s">
         <v>61</v>
@@ -6015,10 +6220,10 @@
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="147"/>
       <c r="B22" s="148" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="C22" s="149" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="D22" s="149" t="n">
         <v>0</v>
@@ -6041,10 +6246,10 @@
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="147"/>
       <c r="B23" s="12" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C23" s="120" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D23" s="125"/>
       <c r="E23" s="125"/>
@@ -6052,19 +6257,19 @@
       <c r="G23" s="125"/>
       <c r="H23" s="125"/>
       <c r="I23" s="125" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J23" s="125" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="147"/>
       <c r="B24" s="12" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C24" s="120" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D24" s="125"/>
       <c r="E24" s="125"/>
@@ -6072,19 +6277,19 @@
       <c r="G24" s="125"/>
       <c r="H24" s="125"/>
       <c r="I24" s="125" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J24" s="125" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="147"/>
       <c r="B25" s="12" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C25" s="120" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D25" s="125"/>
       <c r="E25" s="125"/>
@@ -6092,10 +6297,10 @@
       <c r="G25" s="125"/>
       <c r="H25" s="125"/>
       <c r="I25" s="125" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J25" s="125" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6110,31 +6315,31 @@
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C27" s="125" t="s">
         <v>61</v>
       </c>
       <c r="D27" s="125" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="125" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="125" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="125" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" s="125" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="125" t="s">
+      <c r="I27" s="125" t="s">
+        <v>83</v>
+      </c>
+      <c r="J27" s="125" t="s">
         <v>84</v>
-      </c>
-      <c r="F27" s="125" t="s">
-        <v>85</v>
-      </c>
-      <c r="G27" s="125" t="s">
-        <v>85</v>
-      </c>
-      <c r="H27" s="125" t="s">
-        <v>86</v>
-      </c>
-      <c r="I27" s="125" t="s">
-        <v>86</v>
-      </c>
-      <c r="J27" s="125" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
